--- a/data/barplot_excel.xlsx
+++ b/data/barplot_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE0D76A-3379-F34E-8488-125B16B4B9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C9BB2F-811D-7946-90A1-D48B3196792B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5080" yWindow="1900" windowWidth="28240" windowHeight="17240" xr2:uid="{EFA2E72E-C916-414E-A0C5-8CB26B045DAD}"/>
   </bookViews>
@@ -1992,15 +1992,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>213032</xdr:colOff>
+      <xdr:colOff>213031</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>28132</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>688257</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>108428</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>696451</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>136559</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2351,7 +2351,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2536,7 +2536,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/barplot_excel.xlsx
+++ b/data/barplot_excel.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C9BB2F-811D-7946-90A1-D48B3196792B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0CBB85-95EF-C149-B6B3-EA3EBD65BA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5080" yWindow="1900" windowWidth="28240" windowHeight="17240" xr2:uid="{EFA2E72E-C916-414E-A0C5-8CB26B045DAD}"/>
+    <workbookView xWindow="5100" yWindow="2240" windowWidth="24200" windowHeight="17240" activeTab="2" xr2:uid="{EFA2E72E-C916-414E-A0C5-8CB26B045DAD}"/>
   </bookViews>
   <sheets>
     <sheet name="1-faktoriell" sheetId="1" r:id="rId1"/>
     <sheet name="2-faktoriell" sheetId="3" r:id="rId2"/>
+    <sheet name="Lineare Regression" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="10">
   <si>
     <t>dose</t>
   </si>
@@ -61,6 +62,12 @@
   </si>
   <si>
     <t>high</t>
+  </si>
+  <si>
+    <t>jump_length</t>
+  </si>
+  <si>
+    <t>weight</t>
   </si>
 </sst>
 </file>
@@ -2350,8 +2357,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2536,7 +2543,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2967,4 +2974,83 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA17F9C-E314-0846-BC1F-891C9752F150}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1.2</v>
+      </c>
+      <c r="B2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1.8</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1.3</v>
+      </c>
+      <c r="B4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1.7</v>
+      </c>
+      <c r="B5">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2.6</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1.8</v>
+      </c>
+      <c r="B7">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2.7</v>
+      </c>
+      <c r="B8">
+        <v>2.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/barplot_excel.xlsx
+++ b/data/barplot_excel.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0CBB85-95EF-C149-B6B3-EA3EBD65BA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481FBF7D-8505-2549-A8DD-B5514E97EE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="2240" windowWidth="24200" windowHeight="17240" activeTab="2" xr2:uid="{EFA2E72E-C916-414E-A0C5-8CB26B045DAD}"/>
+    <workbookView xWindow="17040" yWindow="3040" windowWidth="24260" windowHeight="17300" activeTab="1" xr2:uid="{EFA2E72E-C916-414E-A0C5-8CB26B045DAD}"/>
   </bookViews>
   <sheets>
     <sheet name="1-faktoriell" sheetId="1" r:id="rId1"/>
-    <sheet name="2-faktoriell" sheetId="3" r:id="rId2"/>
-    <sheet name="Lineare Regression" sheetId="5" r:id="rId3"/>
+    <sheet name="Tabelle2" sheetId="7" r:id="rId2"/>
+    <sheet name="2-faktoriell" sheetId="3" r:id="rId3"/>
+    <sheet name="Lineare Regression" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="13">
   <si>
     <t>dose</t>
   </si>
@@ -68,6 +69,15 @@
   </si>
   <si>
     <t>weight</t>
+  </si>
+  <si>
+    <t>tierart</t>
+  </si>
+  <si>
+    <t>sprungweite</t>
+  </si>
+  <si>
+    <t>hund</t>
   </si>
 </sst>
 </file>
@@ -867,6 +877,396 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Lineare Regression'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>weight</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.45545800524934382"/>
+                  <c:y val="9.936934966462526E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Lineare Regression'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Lineare Regression'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F60D-504C-A4ED-FEBC5142AF2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="788378576"/>
+        <c:axId val="788479184"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="788378576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="788479184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="788479184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="788378576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -947,6 +1347,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1934,6 +2374,522 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2021,6 +2977,47 @@
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1A118C4-DD21-21AD-8279-2E9CAD0203E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2357,9 +3354,7 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:B16"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2538,6 +3533,85 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA7F2A6-1FDD-1048-9087-EE483842AA97}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>7.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC489A2-8033-1546-A7BB-207CF077F8A1}">
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:I31"/>
@@ -2976,12 +4050,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA17F9C-E314-0846-BC1F-891C9752F150}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3052,5 +4126,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/barplot_excel.xlsx
+++ b/data/barplot_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481FBF7D-8505-2549-A8DD-B5514E97EE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2223A5F-3867-D245-9856-41A3D67CE70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17040" yWindow="3040" windowWidth="24260" windowHeight="17300" activeTab="1" xr2:uid="{EFA2E72E-C916-414E-A0C5-8CB26B045DAD}"/>
+    <workbookView xWindow="160" yWindow="660" windowWidth="38080" windowHeight="19740" activeTab="1" xr2:uid="{EFA2E72E-C916-414E-A0C5-8CB26B045DAD}"/>
   </bookViews>
   <sheets>
     <sheet name="1-faktoriell" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="17">
   <si>
     <t>dose</t>
   </si>
@@ -79,12 +79,24 @@
   <si>
     <t>hund</t>
   </si>
+  <si>
+    <t>Tierart</t>
+  </si>
+  <si>
+    <t>Mittelwert</t>
+  </si>
+  <si>
+    <t>Standardabweichung</t>
+  </si>
+  <si>
+    <t>STABW.S()</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -96,6 +108,13 @@
       <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -119,11 +138,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3534,31 +3555,54 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA7F2A6-1FDD-1048-9087-EE483842AA97}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="290" zoomScaleNormal="290" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2">
+        <f>AVERAGE(B2:B8)</f>
+        <v>8.1285714285714281</v>
+      </c>
+      <c r="F2" s="2">
+        <f>_xlfn.STDEV.S(B2:B8)</f>
+        <v>2.1445390225052163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -3566,7 +3610,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -3574,7 +3618,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3582,7 +3626,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -3590,15 +3634,18 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>

--- a/data/barplot_excel.xlsx
+++ b/data/barplot_excel.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2223A5F-3867-D245-9856-41A3D67CE70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C265FB3-984D-FC4F-A02A-7A0C401D17D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="660" windowWidth="38080" windowHeight="19740" activeTab="1" xr2:uid="{EFA2E72E-C916-414E-A0C5-8CB26B045DAD}"/>
+    <workbookView xWindow="160" yWindow="660" windowWidth="38080" windowHeight="19740" xr2:uid="{EFA2E72E-C916-414E-A0C5-8CB26B045DAD}"/>
   </bookViews>
   <sheets>
     <sheet name="1-faktoriell" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="7" r:id="rId2"/>
-    <sheet name="2-faktoriell" sheetId="3" r:id="rId3"/>
-    <sheet name="Lineare Regression" sheetId="5" r:id="rId4"/>
+    <sheet name="2-faktoriell" sheetId="3" r:id="rId2"/>
+    <sheet name="Lineare Regression" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="10">
   <si>
     <t>dose</t>
   </si>
@@ -70,33 +69,12 @@
   <si>
     <t>weight</t>
   </si>
-  <si>
-    <t>tierart</t>
-  </si>
-  <si>
-    <t>sprungweite</t>
-  </si>
-  <si>
-    <t>hund</t>
-  </si>
-  <si>
-    <t>Tierart</t>
-  </si>
-  <si>
-    <t>Mittelwert</t>
-  </si>
-  <si>
-    <t>Standardabweichung</t>
-  </si>
-  <si>
-    <t>STABW.S()</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -108,13 +86,6 @@
       <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -138,13 +109,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2935,15 +2904,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>796618</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>90472</xdr:rowOff>
+      <xdr:colOff>825926</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>70934</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>415618</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>193710</xdr:rowOff>
+      <xdr:colOff>444926</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>174172</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3375,7 +3344,9 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -3554,111 +3525,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA7F2A6-1FDD-1048-9087-EE483842AA97}">
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="290" zoomScaleNormal="290" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>5.7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2">
-        <f>AVERAGE(B2:B8)</f>
-        <v>8.1285714285714281</v>
-      </c>
-      <c r="F2" s="2">
-        <f>_xlfn.STDEV.S(B2:B8)</f>
-        <v>2.1445390225052163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>11.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>7.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC489A2-8033-1546-A7BB-207CF077F8A1}">
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:I31"/>
@@ -4097,7 +3963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA17F9C-E314-0846-BC1F-891C9752F150}">
   <dimension ref="A1:B8"/>
   <sheetViews>

--- a/data/barplot_excel.xlsx
+++ b/data/barplot_excel.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C265FB3-984D-FC4F-A02A-7A0C401D17D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCE8455-5393-6E45-A3C6-36156DAC5551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="660" windowWidth="38080" windowHeight="19740" xr2:uid="{EFA2E72E-C916-414E-A0C5-8CB26B045DAD}"/>
+    <workbookView xWindow="2700" yWindow="500" windowWidth="34460" windowHeight="19960" activeTab="3" xr2:uid="{EFA2E72E-C916-414E-A0C5-8CB26B045DAD}"/>
   </bookViews>
   <sheets>
     <sheet name="1-faktoriell" sheetId="1" r:id="rId1"/>
     <sheet name="2-faktoriell" sheetId="3" r:id="rId2"/>
     <sheet name="Lineare Regression" sheetId="5" r:id="rId3"/>
+    <sheet name="t-Test" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="29">
   <si>
     <t>dose</t>
   </si>
@@ -69,12 +70,69 @@
   <si>
     <t>weight</t>
   </si>
+  <si>
+    <t>animal</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>t-Test: Two-Sample Assuming Unequal Variances</t>
+  </si>
+  <si>
+    <t>Variable 1</t>
+  </si>
+  <si>
+    <t>Variable 2</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) two-tail</t>
+  </si>
+  <si>
+    <t>&lt;0.05</t>
+  </si>
+  <si>
+    <t>Vergleich</t>
+  </si>
+  <si>
+    <t>Mittelwertsdifferenz</t>
+  </si>
+  <si>
+    <t>p-Wert</t>
+  </si>
+  <si>
+    <t>Signifikant</t>
+  </si>
+  <si>
+    <t>dog vs. Cat</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>dog vs. Fox</t>
+  </si>
+  <si>
+    <t>cat vs fox</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -88,16 +146,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -105,15 +190,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3344,8 +3463,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4041,4 +4160,249 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0F64B8-533D-344F-9F90-E5FC0141C886}">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15:F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="6">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6">
+        <v>11.8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="6">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="6">
+        <v>9.1</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="2">
+        <v>8.1285714285714281</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4.7428571428571429</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="6">
+        <v>7.6</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="2">
+        <v>4.5990476190476288</v>
+      </c>
+      <c r="G8" s="2">
+        <v>3.6161904761904728</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="8">
+        <v>3.2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="2">
+        <v>7</v>
+      </c>
+      <c r="G9" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8">
+        <v>7.9</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="8">
+        <v>6.1</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="9">
+        <v>8.7683581347973577E-3</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <f>F7-G7</f>
+        <v>3.3857142857142852</v>
+      </c>
+      <c r="C20">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/barplot_excel.xlsx
+++ b/data/barplot_excel.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCE8455-5393-6E45-A3C6-36156DAC5551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB972DCB-BBEF-9844-9045-6DCB510F8EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="500" windowWidth="34460" windowHeight="19960" activeTab="3" xr2:uid="{EFA2E72E-C916-414E-A0C5-8CB26B045DAD}"/>
+    <workbookView xWindow="800" yWindow="1160" windowWidth="17180" windowHeight="15280" activeTab="4" xr2:uid="{EFA2E72E-C916-414E-A0C5-8CB26B045DAD}"/>
   </bookViews>
   <sheets>
     <sheet name="1-faktoriell" sheetId="1" r:id="rId1"/>
     <sheet name="2-faktoriell" sheetId="3" r:id="rId2"/>
     <sheet name="Lineare Regression" sheetId="5" r:id="rId3"/>
     <sheet name="t-Test" sheetId="6" r:id="rId4"/>
+    <sheet name="t-Test verbunden" sheetId="9" r:id="rId5"/>
+    <sheet name="1-fak. ANOVA" sheetId="7" r:id="rId6"/>
+    <sheet name="2-fak. ANOVA" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="60">
   <si>
     <t>dose</t>
   </si>
@@ -127,12 +130,105 @@
   <si>
     <t>cat vs fox</t>
   </si>
+  <si>
+    <t>fox</t>
+  </si>
+  <si>
+    <t>Anova: Single Factor</t>
+  </si>
+  <si>
+    <t>SUMMARY</t>
+  </si>
+  <si>
+    <t>Groups</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Source of Variation</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>F crit</t>
+  </si>
+  <si>
+    <t>Between Groups</t>
+  </si>
+  <si>
+    <t>Within Groups</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>rep</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>smalltown</t>
+  </si>
+  <si>
+    <t>village</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>Anova: Two-Factor With Replication</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Columns</t>
+  </si>
+  <si>
+    <t>Interaction</t>
+  </si>
+  <si>
+    <t>Within</t>
+  </si>
+  <si>
+    <t>unfed</t>
+  </si>
+  <si>
+    <t>fed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -161,6 +257,20 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -182,7 +292,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -210,18 +320,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -232,7 +347,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3664,14 +3791,14 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -4166,7 +4293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0F64B8-533D-344F-9F90-E5FC0141C886}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+    <sheetView zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
       <selection activeCell="E15" sqref="E15:F15"/>
     </sheetView>
   </sheetViews>
@@ -4186,26 +4313,26 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="4">
         <v>5.7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <v>8.9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>11.8</v>
       </c>
       <c r="E4" t="s">
@@ -4213,155 +4340,140 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>5.6</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>9.1</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <v>8.1999999999999993</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7">
         <v>8.1285714285714281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7">
         <v>4.7428571428571429</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="4">
         <v>7.6</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8">
         <v>4.5990476190476288</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8">
         <v>3.6161904761904728</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="6">
         <v>3.2</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9">
         <v>7</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="6">
         <v>5.4</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="6">
         <v>4.3</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="6">
         <v>7.9</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="6">
         <v>6.1</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="7">
         <v>8.7683581347973577E-3</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -4400,6 +4512,3181 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4D5601-031C-E843-80F7-84C070FC49A2}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>5.2</v>
+      </c>
+      <c r="B2">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B3">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3.5</v>
+      </c>
+      <c r="B4">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3.2</v>
+      </c>
+      <c r="B5">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B6">
+        <v>5.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9038B18-EA64-BB48-8364-DB2A5F0FE801}">
+  <dimension ref="A1:N22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="9">
+        <v>5.7</v>
+      </c>
+      <c r="D2" s="9">
+        <v>5.7</v>
+      </c>
+      <c r="E2" s="9">
+        <v>3.2</v>
+      </c>
+      <c r="F2" s="9">
+        <v>7.7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="9">
+        <v>8.9</v>
+      </c>
+      <c r="D3" s="9">
+        <v>8.9</v>
+      </c>
+      <c r="E3" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F3" s="9">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="9">
+        <v>11.8</v>
+      </c>
+      <c r="D4" s="9">
+        <v>11.8</v>
+      </c>
+      <c r="E4" s="9">
+        <v>5.4</v>
+      </c>
+      <c r="F4" s="9">
+        <v>9.1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="9">
+        <v>5.6</v>
+      </c>
+      <c r="D5" s="9">
+        <v>5.6</v>
+      </c>
+      <c r="E5" s="9">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F5" s="9">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="9">
+        <v>9.1</v>
+      </c>
+      <c r="D6" s="9">
+        <v>9.1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>4.3</v>
+      </c>
+      <c r="F6" s="9">
+        <v>10.6</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="10">
+        <v>7</v>
+      </c>
+      <c r="J6" s="10">
+        <v>56.9</v>
+      </c>
+      <c r="K6" s="10">
+        <v>8.1285714285714281</v>
+      </c>
+      <c r="L6" s="10">
+        <v>4.5990476190476288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="9">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D7" s="9">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E7" s="9">
+        <v>7.9</v>
+      </c>
+      <c r="F7" s="9">
+        <v>8.6</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="10">
+        <v>7</v>
+      </c>
+      <c r="J7" s="10">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="K7" s="10">
+        <v>4.7428571428571429</v>
+      </c>
+      <c r="L7" s="10">
+        <v>3.6161904761904728</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="9">
+        <v>7.6</v>
+      </c>
+      <c r="D8" s="9">
+        <v>7.6</v>
+      </c>
+      <c r="E8" s="9">
+        <v>6.1</v>
+      </c>
+      <c r="F8" s="9">
+        <v>10.3</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="11">
+        <v>7</v>
+      </c>
+      <c r="J8" s="11">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="K8" s="11">
+        <v>9.1571428571428566</v>
+      </c>
+      <c r="L8" s="11">
+        <v>1.2061904761904809</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="9">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="9">
+        <v>5.4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="9">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9">
+        <v>4.3</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="10">
+        <v>74.682857142857117</v>
+      </c>
+      <c r="J13" s="10">
+        <v>2</v>
+      </c>
+      <c r="K13" s="10">
+        <v>37.341428571428558</v>
+      </c>
+      <c r="L13" s="10">
+        <v>11.890371493555721</v>
+      </c>
+      <c r="M13" s="10">
+        <v>5.1128978603101833E-4</v>
+      </c>
+      <c r="N13" s="10">
+        <v>3.5545571456617879</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9">
+        <v>7.9</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="10">
+        <v>56.528571428571425</v>
+      </c>
+      <c r="J14" s="10">
+        <v>18</v>
+      </c>
+      <c r="K14" s="10">
+        <v>3.1404761904761904</v>
+      </c>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="9">
+        <v>6.1</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+    </row>
+    <row r="16" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="9">
+        <v>7.7</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="11">
+        <v>131.21142857142854</v>
+      </c>
+      <c r="J16" s="11">
+        <v>20</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="9">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="9">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="9">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="9">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="9">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="9">
+        <v>10.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E379B58F-3E08-5B48-B319-E01925F0BB32}">
+  <dimension ref="A1:S121"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="13" max="13" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>12.04</v>
+      </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2">
+        <v>12.04</v>
+      </c>
+      <c r="I2">
+        <v>19.350000000000001</v>
+      </c>
+      <c r="J2">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>11.98</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3">
+        <v>11.98</v>
+      </c>
+      <c r="I3">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="J3">
+        <v>18.489999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="G4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="I4">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="J4">
+        <v>19.78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>13.42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5">
+        <v>13.42</v>
+      </c>
+      <c r="I5">
+        <v>15.33</v>
+      </c>
+      <c r="J5">
+        <v>19.45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>12.37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6">
+        <v>12.37</v>
+      </c>
+      <c r="I6">
+        <v>15.15</v>
+      </c>
+      <c r="J6">
+        <v>21.56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>16.36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7">
+        <v>16.36</v>
+      </c>
+      <c r="I7">
+        <v>19.57</v>
+      </c>
+      <c r="J7">
+        <v>21.37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>14.91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8">
+        <v>14.91</v>
+      </c>
+      <c r="I8">
+        <v>15.44</v>
+      </c>
+      <c r="J8">
+        <v>18.64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>11.17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9">
+        <v>11.17</v>
+      </c>
+      <c r="I9">
+        <v>16.09</v>
+      </c>
+      <c r="J9">
+        <v>20.079999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>12.38</v>
+      </c>
+      <c r="G10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10">
+        <v>12.38</v>
+      </c>
+      <c r="I10">
+        <v>15.91</v>
+      </c>
+      <c r="J10">
+        <v>21.62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>15.06</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11">
+        <v>15.06</v>
+      </c>
+      <c r="I11">
+        <v>13.01</v>
+      </c>
+      <c r="J11">
+        <v>20.68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>15.24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12">
+        <v>15.24</v>
+      </c>
+      <c r="I12">
+        <v>17.72</v>
+      </c>
+      <c r="J12">
+        <v>19.809999999999999</v>
+      </c>
+      <c r="M12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>13.36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13">
+        <v>13.36</v>
+      </c>
+      <c r="I13">
+        <v>17.11</v>
+      </c>
+      <c r="J13">
+        <v>17.78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>15.08</v>
+      </c>
+      <c r="G14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14">
+        <v>15.08</v>
+      </c>
+      <c r="I14">
+        <v>17.57</v>
+      </c>
+      <c r="J14">
+        <v>19.649999999999999</v>
+      </c>
+      <c r="M14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>12.83</v>
+      </c>
+      <c r="G15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15">
+        <v>12.83</v>
+      </c>
+      <c r="I15">
+        <v>17.12</v>
+      </c>
+      <c r="J15">
+        <v>16.38</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>14.68</v>
+      </c>
+      <c r="G16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16">
+        <v>14.68</v>
+      </c>
+      <c r="I16">
+        <v>16.02</v>
+      </c>
+      <c r="J16">
+        <v>17.46</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N16" s="10">
+        <v>10</v>
+      </c>
+      <c r="O16" s="10">
+        <v>10</v>
+      </c>
+      <c r="P16" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>10.73</v>
+      </c>
+      <c r="G17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17">
+        <v>10.73</v>
+      </c>
+      <c r="I17">
+        <v>22.61</v>
+      </c>
+      <c r="J17">
+        <v>17.02</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17" s="10">
+        <v>135.79</v>
+      </c>
+      <c r="O17" s="10">
+        <v>166.8</v>
+      </c>
+      <c r="P17" s="10">
+        <v>201.17000000000002</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>503.76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>13.35</v>
+      </c>
+      <c r="G18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18">
+        <v>13.35</v>
+      </c>
+      <c r="I18">
+        <v>16.489999999999998</v>
+      </c>
+      <c r="J18">
+        <v>19.38</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="N18" s="10">
+        <v>13.578999999999999</v>
+      </c>
+      <c r="O18" s="10">
+        <v>16.68</v>
+      </c>
+      <c r="P18" s="10">
+        <v>20.117000000000001</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>16.791999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>14.54</v>
+      </c>
+      <c r="G19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19">
+        <v>14.54</v>
+      </c>
+      <c r="I19">
+        <v>18.64</v>
+      </c>
+      <c r="J19">
+        <v>15.89</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="10">
+        <v>3.5230544444444707</v>
+      </c>
+      <c r="O19" s="10">
+        <v>5.0907999999999447</v>
+      </c>
+      <c r="P19" s="10">
+        <v>1.3330455555555563</v>
+      </c>
+      <c r="Q19" s="10">
+        <v>10.463361379310362</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>12.99</v>
+      </c>
+      <c r="G20" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20">
+        <v>12.99</v>
+      </c>
+      <c r="I20">
+        <v>17.21</v>
+      </c>
+      <c r="J20">
+        <v>17.149999999999999</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+    </row>
+    <row r="21" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>14.51</v>
+      </c>
+      <c r="G21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21">
+        <v>14.51</v>
+      </c>
+      <c r="I21">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="J21">
+        <v>17.43</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>17.59</v>
+      </c>
+      <c r="G22" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22">
+        <v>17.59</v>
+      </c>
+      <c r="I22">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="J22">
+        <v>15.32</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N22" s="10">
+        <v>10</v>
+      </c>
+      <c r="O22" s="10">
+        <v>10</v>
+      </c>
+      <c r="P22" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>11.24</v>
+      </c>
+      <c r="G23" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23">
+        <v>11.24</v>
+      </c>
+      <c r="I23">
+        <v>15.28</v>
+      </c>
+      <c r="J23">
+        <v>17.59</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N23" s="10">
+        <v>137.31</v>
+      </c>
+      <c r="O23" s="10">
+        <v>180.39</v>
+      </c>
+      <c r="P23" s="10">
+        <v>177.95000000000002</v>
+      </c>
+      <c r="Q23" s="10">
+        <v>495.65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>12.44</v>
+      </c>
+      <c r="G24" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24">
+        <v>12.44</v>
+      </c>
+      <c r="I24">
+        <v>16.91</v>
+      </c>
+      <c r="J24">
+        <v>15.7</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="N24" s="10">
+        <v>13.731</v>
+      </c>
+      <c r="O24" s="10">
+        <v>18.038999999999998</v>
+      </c>
+      <c r="P24" s="10">
+        <v>17.795000000000002</v>
+      </c>
+      <c r="Q24" s="10">
+        <v>16.521666666666665</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>13.63</v>
+      </c>
+      <c r="G25" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25">
+        <v>13.63</v>
+      </c>
+      <c r="I25">
+        <v>15.08</v>
+      </c>
+      <c r="J25">
+        <v>18.579999999999998</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N25" s="10">
+        <v>1.8787211111111108</v>
+      </c>
+      <c r="O25" s="10">
+        <v>3.7678766666666283</v>
+      </c>
+      <c r="P25" s="10">
+        <v>1.87856111111111</v>
+      </c>
+      <c r="Q25" s="10">
+        <v>6.3738419540230034</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>14.92</v>
+      </c>
+      <c r="G26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26">
+        <v>14.92</v>
+      </c>
+      <c r="I26">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="J26">
+        <v>16.850000000000001</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+    </row>
+    <row r="27" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>17.43</v>
+      </c>
+      <c r="G27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27">
+        <v>17.43</v>
+      </c>
+      <c r="I27">
+        <v>16.34</v>
+      </c>
+      <c r="J27">
+        <v>18.25</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>18.3</v>
+      </c>
+      <c r="G28" t="s">
+        <v>51</v>
+      </c>
+      <c r="H28">
+        <v>18.3</v>
+      </c>
+      <c r="I28">
+        <v>17.61</v>
+      </c>
+      <c r="J28">
+        <v>18.75</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N28" s="10">
+        <v>10</v>
+      </c>
+      <c r="O28" s="10">
+        <v>10</v>
+      </c>
+      <c r="P28" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>16.350000000000001</v>
+      </c>
+      <c r="G29" t="s">
+        <v>51</v>
+      </c>
+      <c r="H29">
+        <v>16.350000000000001</v>
+      </c>
+      <c r="I29">
+        <v>14.8</v>
+      </c>
+      <c r="J29">
+        <v>16.96</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N29" s="10">
+        <v>152.47</v>
+      </c>
+      <c r="O29" s="10">
+        <v>165.63000000000002</v>
+      </c>
+      <c r="P29" s="10">
+        <v>169.76</v>
+      </c>
+      <c r="Q29" s="10">
+        <v>487.85999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30">
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <v>16.34</v>
+      </c>
+      <c r="G30" t="s">
+        <v>51</v>
+      </c>
+      <c r="H30">
+        <v>16.34</v>
+      </c>
+      <c r="I30">
+        <v>17.52</v>
+      </c>
+      <c r="J30">
+        <v>13.38</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="N30" s="10">
+        <v>15.247</v>
+      </c>
+      <c r="O30" s="10">
+        <v>16.563000000000002</v>
+      </c>
+      <c r="P30" s="10">
+        <v>16.975999999999999</v>
+      </c>
+      <c r="Q30" s="10">
+        <v>16.261999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>14.23</v>
+      </c>
+      <c r="G31" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31">
+        <v>14.23</v>
+      </c>
+      <c r="I31">
+        <v>16.93</v>
+      </c>
+      <c r="J31">
+        <v>18.38</v>
+      </c>
+      <c r="M31" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N31" s="10">
+        <v>5.5198233333333313</v>
+      </c>
+      <c r="O31" s="10">
+        <v>1.4733122222222215</v>
+      </c>
+      <c r="P31" s="10">
+        <v>3.0010044444444426</v>
+      </c>
+      <c r="Q31" s="10">
+        <v>3.6639131034483179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>13.7</v>
+      </c>
+      <c r="G32" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32">
+        <v>13.7</v>
+      </c>
+      <c r="I32">
+        <v>15.78</v>
+      </c>
+      <c r="J32">
+        <v>16.850000000000001</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+    </row>
+    <row r="33" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>15.13</v>
+      </c>
+      <c r="G33" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33">
+        <v>15.13</v>
+      </c>
+      <c r="I33">
+        <v>17.02</v>
+      </c>
+      <c r="J33">
+        <v>13.55</v>
+      </c>
+      <c r="M33" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="G34" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="I34">
+        <v>15.41</v>
+      </c>
+      <c r="J34">
+        <v>13.89</v>
+      </c>
+      <c r="M34" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N34" s="10">
+        <v>10</v>
+      </c>
+      <c r="O34" s="10">
+        <v>10</v>
+      </c>
+      <c r="P34" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q34" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>14.6</v>
+      </c>
+      <c r="G35" t="s">
+        <v>52</v>
+      </c>
+      <c r="H35">
+        <v>14.6</v>
+      </c>
+      <c r="I35">
+        <v>15.61</v>
+      </c>
+      <c r="J35">
+        <v>15.67</v>
+      </c>
+      <c r="M35" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N35" s="10">
+        <v>161.86000000000001</v>
+      </c>
+      <c r="O35" s="10">
+        <v>171.67999999999995</v>
+      </c>
+      <c r="P35" s="10">
+        <v>148.20000000000002</v>
+      </c>
+      <c r="Q35" s="10">
+        <v>481.73999999999984</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>16.16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>52</v>
+      </c>
+      <c r="H36">
+        <v>16.16</v>
+      </c>
+      <c r="I36">
+        <v>19.87</v>
+      </c>
+      <c r="J36">
+        <v>16.38</v>
+      </c>
+      <c r="M36" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="N36" s="10">
+        <v>16.186</v>
+      </c>
+      <c r="O36" s="10">
+        <v>17.167999999999996</v>
+      </c>
+      <c r="P36" s="10">
+        <v>14.820000000000002</v>
+      </c>
+      <c r="Q36" s="10">
+        <v>16.057999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>14.26</v>
+      </c>
+      <c r="G37" t="s">
+        <v>52</v>
+      </c>
+      <c r="H37">
+        <v>14.26</v>
+      </c>
+      <c r="I37">
+        <v>19.239999999999998</v>
+      </c>
+      <c r="J37">
+        <v>14.59</v>
+      </c>
+      <c r="M37" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N37" s="10">
+        <v>3.6118711111111628</v>
+      </c>
+      <c r="O37" s="10">
+        <v>3.1646177777777771</v>
+      </c>
+      <c r="P37" s="10">
+        <v>1.4300888888888887</v>
+      </c>
+      <c r="Q37" s="10">
+        <v>3.505878620689804</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38">
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <v>15.39</v>
+      </c>
+      <c r="G38" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38">
+        <v>15.39</v>
+      </c>
+      <c r="I38">
+        <v>17.649999999999999</v>
+      </c>
+      <c r="J38">
+        <v>14.03</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+    </row>
+    <row r="39" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>16.850000000000001</v>
+      </c>
+      <c r="G39" t="s">
+        <v>52</v>
+      </c>
+      <c r="H39">
+        <v>16.850000000000001</v>
+      </c>
+      <c r="I39">
+        <v>18.829999999999998</v>
+      </c>
+      <c r="J39">
+        <v>13.63</v>
+      </c>
+      <c r="M39" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40">
+        <v>9</v>
+      </c>
+      <c r="D40">
+        <v>19.02</v>
+      </c>
+      <c r="G40" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40">
+        <v>19.02</v>
+      </c>
+      <c r="I40">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="J40">
+        <v>14.09</v>
+      </c>
+      <c r="M40" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N40" s="10">
+        <v>40</v>
+      </c>
+      <c r="O40" s="10">
+        <v>40</v>
+      </c>
+      <c r="P40" s="10">
+        <v>40</v>
+      </c>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="G41" t="s">
+        <v>52</v>
+      </c>
+      <c r="H41">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="I41">
+        <v>14.67</v>
+      </c>
+      <c r="J41">
+        <v>15.52</v>
+      </c>
+      <c r="M41" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N41" s="10">
+        <v>587.43000000000006</v>
+      </c>
+      <c r="O41" s="10">
+        <v>684.5</v>
+      </c>
+      <c r="P41" s="10">
+        <v>697.08</v>
+      </c>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>19.350000000000001</v>
+      </c>
+      <c r="M42" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="N42" s="10">
+        <v>14.685750000000002</v>
+      </c>
+      <c r="O42" s="10">
+        <v>17.112499999999997</v>
+      </c>
+      <c r="P42" s="10">
+        <v>17.426999999999996</v>
+      </c>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="M43" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N43" s="10">
+        <v>4.5595686538460702</v>
+      </c>
+      <c r="O43" s="10">
+        <v>3.4608807692309198</v>
+      </c>
+      <c r="P43" s="10">
+        <v>5.4486676923078887</v>
+      </c>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>15.33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>15.15</v>
+      </c>
+      <c r="M46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47">
+        <v>6</v>
+      </c>
+      <c r="D47">
+        <v>19.57</v>
+      </c>
+      <c r="M47" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="N47" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="O47" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="P47" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q47" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="R47" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="S47" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48">
+        <v>7</v>
+      </c>
+      <c r="D48">
+        <v>15.44</v>
+      </c>
+      <c r="M48" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="N48" s="10">
+        <v>9.1257424999997738</v>
+      </c>
+      <c r="O48" s="10">
+        <v>3</v>
+      </c>
+      <c r="P48" s="10">
+        <v>3.0419141666665914</v>
+      </c>
+      <c r="Q48" s="10">
+        <v>1.0232724618296445</v>
+      </c>
+      <c r="R48" s="10">
+        <v>0.38535819115593345</v>
+      </c>
+      <c r="S48" s="10">
+        <v>2.6886914680276828</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>8</v>
+      </c>
+      <c r="D49">
+        <v>16.09</v>
+      </c>
+      <c r="M49" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="N49" s="10">
+        <v>180.03303166666649</v>
+      </c>
+      <c r="O49" s="10">
+        <v>2</v>
+      </c>
+      <c r="P49" s="10">
+        <v>90.016515833333244</v>
+      </c>
+      <c r="Q49" s="10">
+        <v>30.280743214737111</v>
+      </c>
+      <c r="R49" s="10">
+        <v>3.6302101652762211E-11</v>
+      </c>
+      <c r="S49" s="10">
+        <v>3.0803868632925813</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50">
+        <v>9</v>
+      </c>
+      <c r="D50">
+        <v>15.91</v>
+      </c>
+      <c r="M50" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="N50" s="10">
+        <v>195.11483500000008</v>
+      </c>
+      <c r="O50" s="10">
+        <v>6</v>
+      </c>
+      <c r="P50" s="10">
+        <v>32.519139166666683</v>
+      </c>
+      <c r="Q50" s="10">
+        <v>10.939144817527994</v>
+      </c>
+      <c r="R50" s="10">
+        <v>1.709866094173707E-9</v>
+      </c>
+      <c r="S50" s="10">
+        <v>2.1836568832611243</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51">
+        <v>10</v>
+      </c>
+      <c r="D51">
+        <v>13.01</v>
+      </c>
+      <c r="M51" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="N51" s="10">
+        <v>321.05498999999998</v>
+      </c>
+      <c r="O51" s="10">
+        <v>108</v>
+      </c>
+      <c r="P51" s="10">
+        <v>2.9727313888888887</v>
+      </c>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>17.72</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+    </row>
+    <row r="53" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>17.11</v>
+      </c>
+      <c r="M53" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N53" s="11">
+        <v>705.32859916666632</v>
+      </c>
+      <c r="O53" s="11">
+        <v>119</v>
+      </c>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>17.57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>17.12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>16.02</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57">
+        <v>6</v>
+      </c>
+      <c r="D57">
+        <v>22.61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58">
+        <v>7</v>
+      </c>
+      <c r="D58">
+        <v>16.489999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" t="s">
+        <v>50</v>
+      </c>
+      <c r="C59">
+        <v>8</v>
+      </c>
+      <c r="D59">
+        <v>18.64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60">
+        <v>9</v>
+      </c>
+      <c r="D60">
+        <v>17.21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61">
+        <v>10</v>
+      </c>
+      <c r="D61">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" t="s">
+        <v>51</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" t="s">
+        <v>51</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <v>15.28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>16.91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" t="s">
+        <v>51</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="D65">
+        <v>15.08</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" t="s">
+        <v>51</v>
+      </c>
+      <c r="C66">
+        <v>5</v>
+      </c>
+      <c r="D66">
+        <v>18.559999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" t="s">
+        <v>51</v>
+      </c>
+      <c r="C67">
+        <v>6</v>
+      </c>
+      <c r="D67">
+        <v>16.34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68">
+        <v>7</v>
+      </c>
+      <c r="D68">
+        <v>17.61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" t="s">
+        <v>51</v>
+      </c>
+      <c r="C69">
+        <v>8</v>
+      </c>
+      <c r="D69">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C70">
+        <v>9</v>
+      </c>
+      <c r="D70">
+        <v>17.52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" t="s">
+        <v>51</v>
+      </c>
+      <c r="C71">
+        <v>10</v>
+      </c>
+      <c r="D71">
+        <v>16.93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" t="s">
+        <v>52</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>15.78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" t="s">
+        <v>52</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <v>17.02</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" t="s">
+        <v>52</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <v>15.41</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" t="s">
+        <v>52</v>
+      </c>
+      <c r="C75">
+        <v>4</v>
+      </c>
+      <c r="D75">
+        <v>15.61</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" t="s">
+        <v>52</v>
+      </c>
+      <c r="C76">
+        <v>5</v>
+      </c>
+      <c r="D76">
+        <v>19.87</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" t="s">
+        <v>52</v>
+      </c>
+      <c r="C77">
+        <v>6</v>
+      </c>
+      <c r="D77">
+        <v>19.239999999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" t="s">
+        <v>52</v>
+      </c>
+      <c r="C78">
+        <v>7</v>
+      </c>
+      <c r="D78">
+        <v>17.649999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" t="s">
+        <v>52</v>
+      </c>
+      <c r="C79">
+        <v>8</v>
+      </c>
+      <c r="D79">
+        <v>18.829999999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" t="s">
+        <v>52</v>
+      </c>
+      <c r="C80">
+        <v>9</v>
+      </c>
+      <c r="D80">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" t="s">
+        <v>52</v>
+      </c>
+      <c r="C81">
+        <v>10</v>
+      </c>
+      <c r="D81">
+        <v>14.67</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>29</v>
+      </c>
+      <c r="B82" t="s">
+        <v>49</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>29</v>
+      </c>
+      <c r="B83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>18.489999999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" t="s">
+        <v>49</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84">
+        <v>19.78</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>29</v>
+      </c>
+      <c r="B85" t="s">
+        <v>49</v>
+      </c>
+      <c r="C85">
+        <v>4</v>
+      </c>
+      <c r="D85">
+        <v>19.45</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>29</v>
+      </c>
+      <c r="B86" t="s">
+        <v>49</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
+      </c>
+      <c r="D86">
+        <v>21.56</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>29</v>
+      </c>
+      <c r="B87" t="s">
+        <v>49</v>
+      </c>
+      <c r="C87">
+        <v>6</v>
+      </c>
+      <c r="D87">
+        <v>21.37</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>29</v>
+      </c>
+      <c r="B88" t="s">
+        <v>49</v>
+      </c>
+      <c r="C88">
+        <v>7</v>
+      </c>
+      <c r="D88">
+        <v>18.64</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>29</v>
+      </c>
+      <c r="B89" t="s">
+        <v>49</v>
+      </c>
+      <c r="C89">
+        <v>8</v>
+      </c>
+      <c r="D89">
+        <v>20.079999999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>29</v>
+      </c>
+      <c r="B90" t="s">
+        <v>49</v>
+      </c>
+      <c r="C90">
+        <v>9</v>
+      </c>
+      <c r="D90">
+        <v>21.62</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>29</v>
+      </c>
+      <c r="B91" t="s">
+        <v>49</v>
+      </c>
+      <c r="C91">
+        <v>10</v>
+      </c>
+      <c r="D91">
+        <v>20.68</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>29</v>
+      </c>
+      <c r="B92" t="s">
+        <v>50</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>19.809999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>29</v>
+      </c>
+      <c r="B93" t="s">
+        <v>50</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+      <c r="D93">
+        <v>17.78</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>29</v>
+      </c>
+      <c r="B94" t="s">
+        <v>50</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+      <c r="D94">
+        <v>19.649999999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>29</v>
+      </c>
+      <c r="B95" t="s">
+        <v>50</v>
+      </c>
+      <c r="C95">
+        <v>4</v>
+      </c>
+      <c r="D95">
+        <v>16.38</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>29</v>
+      </c>
+      <c r="B96" t="s">
+        <v>50</v>
+      </c>
+      <c r="C96">
+        <v>5</v>
+      </c>
+      <c r="D96">
+        <v>17.46</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>29</v>
+      </c>
+      <c r="B97" t="s">
+        <v>50</v>
+      </c>
+      <c r="C97">
+        <v>6</v>
+      </c>
+      <c r="D97">
+        <v>17.02</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>29</v>
+      </c>
+      <c r="B98" t="s">
+        <v>50</v>
+      </c>
+      <c r="C98">
+        <v>7</v>
+      </c>
+      <c r="D98">
+        <v>19.38</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>29</v>
+      </c>
+      <c r="B99" t="s">
+        <v>50</v>
+      </c>
+      <c r="C99">
+        <v>8</v>
+      </c>
+      <c r="D99">
+        <v>15.89</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>29</v>
+      </c>
+      <c r="B100" t="s">
+        <v>50</v>
+      </c>
+      <c r="C100">
+        <v>9</v>
+      </c>
+      <c r="D100">
+        <v>17.149999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>29</v>
+      </c>
+      <c r="B101" t="s">
+        <v>50</v>
+      </c>
+      <c r="C101">
+        <v>10</v>
+      </c>
+      <c r="D101">
+        <v>17.43</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>29</v>
+      </c>
+      <c r="B102" t="s">
+        <v>51</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>15.32</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>29</v>
+      </c>
+      <c r="B103" t="s">
+        <v>51</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="D103">
+        <v>17.59</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>29</v>
+      </c>
+      <c r="B104" t="s">
+        <v>51</v>
+      </c>
+      <c r="C104">
+        <v>3</v>
+      </c>
+      <c r="D104">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>29</v>
+      </c>
+      <c r="B105" t="s">
+        <v>51</v>
+      </c>
+      <c r="C105">
+        <v>4</v>
+      </c>
+      <c r="D105">
+        <v>18.579999999999998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>29</v>
+      </c>
+      <c r="B106" t="s">
+        <v>51</v>
+      </c>
+      <c r="C106">
+        <v>5</v>
+      </c>
+      <c r="D106">
+        <v>16.850000000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>29</v>
+      </c>
+      <c r="B107" t="s">
+        <v>51</v>
+      </c>
+      <c r="C107">
+        <v>6</v>
+      </c>
+      <c r="D107">
+        <v>18.25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>29</v>
+      </c>
+      <c r="B108" t="s">
+        <v>51</v>
+      </c>
+      <c r="C108">
+        <v>7</v>
+      </c>
+      <c r="D108">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>29</v>
+      </c>
+      <c r="B109" t="s">
+        <v>51</v>
+      </c>
+      <c r="C109">
+        <v>8</v>
+      </c>
+      <c r="D109">
+        <v>16.96</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>29</v>
+      </c>
+      <c r="B110" t="s">
+        <v>51</v>
+      </c>
+      <c r="C110">
+        <v>9</v>
+      </c>
+      <c r="D110">
+        <v>13.38</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>29</v>
+      </c>
+      <c r="B111" t="s">
+        <v>51</v>
+      </c>
+      <c r="C111">
+        <v>10</v>
+      </c>
+      <c r="D111">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>29</v>
+      </c>
+      <c r="B112" t="s">
+        <v>52</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>16.850000000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>29</v>
+      </c>
+      <c r="B113" t="s">
+        <v>52</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+      <c r="D113">
+        <v>13.55</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>29</v>
+      </c>
+      <c r="B114" t="s">
+        <v>52</v>
+      </c>
+      <c r="C114">
+        <v>3</v>
+      </c>
+      <c r="D114">
+        <v>13.89</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>29</v>
+      </c>
+      <c r="B115" t="s">
+        <v>52</v>
+      </c>
+      <c r="C115">
+        <v>4</v>
+      </c>
+      <c r="D115">
+        <v>15.67</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>29</v>
+      </c>
+      <c r="B116" t="s">
+        <v>52</v>
+      </c>
+      <c r="C116">
+        <v>5</v>
+      </c>
+      <c r="D116">
+        <v>16.38</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>29</v>
+      </c>
+      <c r="B117" t="s">
+        <v>52</v>
+      </c>
+      <c r="C117">
+        <v>6</v>
+      </c>
+      <c r="D117">
+        <v>14.59</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>29</v>
+      </c>
+      <c r="B118" t="s">
+        <v>52</v>
+      </c>
+      <c r="C118">
+        <v>7</v>
+      </c>
+      <c r="D118">
+        <v>14.03</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>29</v>
+      </c>
+      <c r="B119" t="s">
+        <v>52</v>
+      </c>
+      <c r="C119">
+        <v>8</v>
+      </c>
+      <c r="D119">
+        <v>13.63</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>29</v>
+      </c>
+      <c r="B120" t="s">
+        <v>52</v>
+      </c>
+      <c r="C120">
+        <v>9</v>
+      </c>
+      <c r="D120">
+        <v>14.09</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>29</v>
+      </c>
+      <c r="B121" t="s">
+        <v>52</v>
+      </c>
+      <c r="C121">
+        <v>10</v>
+      </c>
+      <c r="D121">
+        <v>15.52</v>
       </c>
     </row>
   </sheetData>

--- a/data/barplot_excel.xlsx
+++ b/data/barplot_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB972DCB-BBEF-9844-9045-6DCB510F8EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F441CA5-501D-4441-85E7-F7316A7ADE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="1160" windowWidth="17180" windowHeight="15280" activeTab="4" xr2:uid="{EFA2E72E-C916-414E-A0C5-8CB26B045DAD}"/>
+    <workbookView xWindow="160" yWindow="660" windowWidth="38080" windowHeight="19660" activeTab="3" xr2:uid="{EFA2E72E-C916-414E-A0C5-8CB26B045DAD}"/>
   </bookViews>
   <sheets>
     <sheet name="1-faktoriell" sheetId="1" r:id="rId1"/>
@@ -4293,7 +4293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0F64B8-533D-344F-9F90-E5FC0141C886}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
       <selection activeCell="E15" sqref="E15:F15"/>
     </sheetView>
   </sheetViews>
@@ -4523,7 +4523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4D5601-031C-E843-80F7-84C070FC49A2}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
